--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/40_İstanbul_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/40_İstanbul_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73F6AA83-C9D1-4A0F-8806-91A03ED0FF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27EFD526-0631-4219-AEAF-4332BD4EAB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{6C751B8E-6F16-4443-B8F0-0D888F5791EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{7AAE4B0A-5677-4069-ABA1-61CE724EA6CE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{FC2F6706-87E6-40A8-A138-32923B8F2B7A}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3D6498A0-F283-4275-96BF-83D5FBBCFB7E}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{C817BB7E-8BDC-46C5-A2FC-81FA75EA75A9}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{CE007072-A5AA-42FA-A13A-4D62F8B8ADBD}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{E6FD669A-2C7F-4369-8FA8-9E8108BEE328}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{CCBC1FD7-45EC-4CB8-92AB-573026D3EA34}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{46BB5F3D-C2AD-4E86-B8CF-A6ABAA5CCF00}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3C5B0C22-2EB2-4DA4-A720-3F8E0334A9BD}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{007586CA-F49D-4D59-BAF5-DDC084A065E1}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{0E9AF68E-3F7B-4253-B765-0F7BD51426EC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{333494B1-DF75-44BD-8EFB-B838AE160B80}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{926354EB-D514-4D44-8185-D94AE160D74D}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{A2F5E603-0EC3-47E2-B65E-489A77636A38}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{95954CEF-F4F9-47E1-920A-B000BF912724}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7977939E-473A-4108-8300-C92A8151B027}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6516D7F4-6FAF-41BA-9699-99236631D6E7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2631,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF83217-F5EC-4414-B64F-C1A094D0EC04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53C8EC0-82FF-4F45-8FBF-B25DA2FD4E50}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3930,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74861A17-3E1D-4F7E-8F6A-306CDA6ED6D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D179BD-23DA-4D57-B383-AC579A833862}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5229,7 +5229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB6BD15-9B99-48AB-8601-FF4ECAE1D115}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7686319-811A-4FEB-9599-00269F409DF0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6524,7 +6524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595CD17F-78A2-4CC4-869E-0D8DBCE0C6C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D971E00-008E-4317-85BC-8F8A5D3F5493}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7863,7 +7863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F684CE-EF73-4581-BC16-8E726A825922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70029884-2897-4EA0-8350-FB8CB6ED53BE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9202,7 +9202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965F2E82-591F-44E5-BFED-6D1F8E9FD4B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C1B9C7-61B5-40ED-BF3C-5B1F2C2E143D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10541,7 +10541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4427015-0B66-496F-A2E1-1322C38C3D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD77D29-1688-463D-AA2E-BEF72570C446}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11880,7 +11880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C286973F-567E-4296-BCC8-6762394DAC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C24A68-1AC7-48D3-9032-DD3E6EB6EE30}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13219,7 +13219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5001FBFC-685E-4E68-900C-31402A86B91F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D37ED0-6BA6-4D9A-98DB-7B16BB693D46}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14542,7 +14542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4969019-0FD1-4EEE-8ACF-1EFA492C5943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDBAFCB-88C7-46CB-8ED2-B9BF6A1FB2AF}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15865,7 +15865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794579E2-7B70-4B22-B6E1-F859927CDB15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7722E80B-C5F5-493C-BDF0-1F128CE768A9}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
